--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136144.5243287711</v>
+        <v>133664.5354836386</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.149552836883998</v>
+        <v>93.58753137644032</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>110.4637346787656</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.7143217795332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>278.1429131767408</v>
       </c>
       <c r="F5" t="n">
-        <v>307.6318019940295</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>66.06105280542832</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>189.1329927668882</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222619</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>218.5174356271575</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>79.54581243241749</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>192.1675620474806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10.63412424768299</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>30.97191586387692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>51.36569740310517</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703285</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>42.71572132711285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.050536840746</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.292509403255</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1852.283970943244</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.349301773071</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X4" t="n">
-        <v>1124.349301773071</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219476</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279065</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.904259672314</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.904259672314</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.87164725941</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283598</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.1577228956174</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.283255075274</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1102.598766869387</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1102.598766869387</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>1102.598766869387</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.8061877258572</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694474</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754062</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473119</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490677</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758596</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368217</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>481.4479471244859</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420928</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>186.6449060441825</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>186.6449060441825</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949683</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,58 +5501,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748842</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.00331409304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887153</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121661</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121661</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121661</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121661</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703128</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576786</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>219.0505596597682</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,13 +7488,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15.64270034434998</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.5842888265965</v>
+        <v>54.94575946518538</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.7930130658405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.063858529812515e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>129.6605885985409</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>136.2749052347509</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>166.0397529241831</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194039</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>122.808416965156</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1007153.899871283</v>
+        <v>1007153.899871284</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406859</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682527</v>
@@ -26329,31 +26329,31 @@
         <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="J2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="K2" t="n">
         <v>343037.304868253</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605434</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455651</v>
+        <v>95375.52669455676</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312008</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931201</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26439,7 +26439,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768832</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26448,13 +26448,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-985809.2065696348</v>
+        <v>-985995.599958174</v>
       </c>
       <c r="C6" t="n">
-        <v>-51564.10907429915</v>
+        <v>-51564.1090742989</v>
       </c>
       <c r="D6" t="n">
         <v>151874.632537807</v>
       </c>
       <c r="E6" t="n">
-        <v>-93444.83108477866</v>
+        <v>-93479.56901021396</v>
       </c>
       <c r="F6" t="n">
-        <v>231967.6307225767</v>
+        <v>231932.892797141</v>
       </c>
       <c r="G6" t="n">
-        <v>231967.6307225769</v>
+        <v>231932.8927971409</v>
       </c>
       <c r="H6" t="n">
-        <v>231967.6307225769</v>
+        <v>231932.8927971411</v>
       </c>
       <c r="I6" t="n">
-        <v>231967.6307225768</v>
+        <v>231932.8927971409</v>
       </c>
       <c r="J6" t="n">
-        <v>64362.45291259444</v>
+        <v>64327.7149871584</v>
       </c>
       <c r="K6" t="n">
-        <v>182857.5380165223</v>
+        <v>182822.8000910869</v>
       </c>
       <c r="L6" t="n">
-        <v>231967.6307225768</v>
+        <v>231932.8927971412</v>
       </c>
       <c r="M6" t="n">
-        <v>146912.6027870649</v>
+        <v>146877.8648616295</v>
       </c>
       <c r="N6" t="n">
-        <v>231967.6307225769</v>
+        <v>231932.8927971411</v>
       </c>
       <c r="O6" t="n">
-        <v>231967.630722577</v>
+        <v>231932.8927971411</v>
       </c>
       <c r="P6" t="n">
-        <v>231967.6307225766</v>
+        <v>231932.892797141</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,28 +26790,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>234.2005508218549</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.4449255902131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.8703315725616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>103.787456895521</v>
       </c>
       <c r="F5" t="n">
-        <v>99.24424374768194</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>220.1507854001846</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>97.39000556970282</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194496</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>32.47773633174452</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0031368437517</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>94.35543628911037</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357816</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175677</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256852</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>351.067382340473</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191315</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
         <v>735.300110790295</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
